--- a/companies_analysis.xlsx
+++ b/companies_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Reclame Aqui Tempo Resposta</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Reclame Aqui URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -509,7 +514,7 @@
         <v>6.97</v>
       </c>
       <c r="G2" t="n">
-        <v>111387</v>
+        <v>111364</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -522,6 +527,11 @@
           <t>3 dias e 17 horas.</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/hotel-urbano/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
           <t>65 dias e 6 horas.</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/123-milhas/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,7 +610,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>26 dias e 18 horas.</t>
+          <t>26 dias e 20 horas.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/aes-eletropaulo/</t>
         </is>
       </c>
     </row>
@@ -623,7 +643,7 @@
         <v>28.7</v>
       </c>
       <c r="G5" t="n">
-        <v>40573</v>
+        <v>40568</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
@@ -636,6 +656,11 @@
           <t>11 dias e 22 horas.</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/bradesco/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
           <t>3 dias e 9 horas.</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/itau/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -699,7 +729,7 @@
         <v>52.05</v>
       </c>
       <c r="G7" t="n">
-        <v>108771</v>
+        <v>108770</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -710,6 +740,11 @@
           <t>--.</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/claro/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -746,6 +781,11 @@
           <t>--.</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/samsung/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -782,6 +822,11 @@
           <t>--.</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/ikeg/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -807,7 +852,7 @@
         <v>46.64</v>
       </c>
       <c r="G10" t="n">
-        <v>173449</v>
+        <v>173432</v>
       </c>
       <c r="H10" t="n">
         <v>99.40000000000001</v>
@@ -820,6 +865,11 @@
           <t>9 dias e 23 horas.</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/shopee/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -845,7 +895,7 @@
         <v>41.78</v>
       </c>
       <c r="G11" t="n">
-        <v>102335</v>
+        <v>102329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -854,6 +904,11 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>--.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.reclameaqui.com.br/empresa/vivo-celular-fixo-internet-tv/</t>
         </is>
       </c>
     </row>
